--- a/CSCE-5.xlsx
+++ b/CSCE-5.xlsx
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 6/29/2024, 6:35:09 PM</t>
+    <t>Report generated on: 6/29/2024, 7:42:49 PM</t>
   </si>
   <si>
     <t>Color Legend</t>
@@ -675,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="8">
         <v>2</v>
@@ -695,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>22</v>
@@ -726,7 +726,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="11">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="8">
         <v>18</v>
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>34</v>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>36</v>
@@ -843,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>39</v>

--- a/CSCE-5.xlsx
+++ b/CSCE-5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 6/29/2024, 7:42:49 PM</t>
+    <t>Report generated on: 6/30/2024, 9:17:40 AM</t>
   </si>
   <si>
     <t>Color Legend</t>
@@ -58,7 +58,7 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Moderately Recommended</t>
+    <t>Below Average</t>
   </si>
   <si>
     <t>Not Recommended</t>
@@ -79,7 +79,7 @@
     <t>Arup Sarkar</t>
   </si>
   <si>
-    <t>["Extremely linent. Bharke marks dega…","Marks dega. Lekin classes bohot boring honge..Friendly bhi ha","Acha marks dega lenient v hai"]</t>
+    <t>["Marks dega. Lekin classes bohot boring honge..Friendly bhi ha","Extremely linent. Bharke marks dega…","Acha marks dega lenient v hai"]</t>
   </si>
   <si>
     <t>Mandakini Priyadarshani Behera</t>
@@ -97,6 +97,9 @@
     <t>["DAA","DAA Lab"]</t>
   </si>
   <si>
+    <t>["poor lots of assignments and doesn't give marks","doesnt give marksss"]</t>
+  </si>
+  <si>
     <t>Swapnomayee Palit</t>
   </si>
   <si>
@@ -115,7 +118,7 @@
     <t>Ashish Singh</t>
   </si>
   <si>
-    <t>["isko liya to pura semester bhugto ge","Worst faculty. Students are affected very badly","Kuch bhi properly explain nahi kar pata. Galat ppt mein iske rehta hai. Students ko blame karta rahega lack of attentiveness par. Attendance Puri class ka deduct kar deta . Pura time back Laga Dene ki dhamki dega. Ladkiyon ko stare karta hai. Bina evidence malpractice mein lab me logo ko publicity sessional mein 0 de dala. Koi marks nahi deta . 90 percent PPL got below 10 in mid sem . Not even a single person got 20+ in internals. Call bhi reply nahi karta. Suicide karlo isko mat lo","Avoid"]</t>
+    <t>["Worst faculty. Students are affected very badly","isko liya to pura semester bhugto ge","Kuch bhi properly explain nahi kar pata. Galat ppt mein iske rehta hai. Students ko blame karta rahega lack of attentiveness par. Attendance Puri class ka deduct kar deta . Pura time back Laga Dene ki dhamki dega. Ladkiyon ko stare karta hai. Bina evidence malpractice mein lab me logo ko publicity sessional mein 0 de dala. Koi marks nahi deta . 90 percent PPL got below 10 in mid sem . Not even a single person got 20+ in internals. Call bhi reply nahi karta. Suicide karlo isko mat lo","Avoid","He can't teach , and is extremely egoistic.","Vai marr jaa suicide karle but ye nehi"]</t>
   </si>
   <si>
     <t>Prachet Bhuyan</t>
@@ -130,7 +133,7 @@
     <t>Murari Mandal</t>
   </si>
   <si>
-    <t>["awful teacher! neither does he bother to teach and complete syllabus nor does he give decent internals"]</t>
+    <t>["awful teacher! neither does he bother to teach and complete syllabus nor does he give decent internals","bohot bada harami hai ye mat lena "]</t>
   </si>
   <si>
     <t>Uppada Gautami</t>
@@ -214,10 +217,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="8">
         <v>2</v>
@@ -692,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D20" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>22</v>
@@ -719,65 +722,65 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="11">
-        <v>11</v>
-      </c>
-      <c r="D22" s="11">
-        <v>2</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>20</v>
+      <c r="C22" s="10">
+        <v>22</v>
+      </c>
+      <c r="D22" s="10">
+        <v>37</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="8">
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="11">
         <v>5</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="11">
         <v>3</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="8">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D26" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>19</v>
@@ -786,55 +789,55 @@
         <v>2</v>
       </c>
       <c r="D27" s="10">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="10">
         <v>6</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="8">
+      <c r="B29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="11">
         <v>5</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="11">
         <v>3</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>27</v>
@@ -843,10 +846,10 @@
         <v>11</v>
       </c>
       <c r="D32" s="10">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -868,7 +871,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
